--- a/examples/books-template.xlsx
+++ b/examples/books-template.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
-    <t>{{ | | library }}</t>
+    <t>{{ | | library.name }}</t>
   </si>
   <si>
     <t>Criteria \ Books</t>
@@ -1543,7 +1543,7 @@
     <col min="2" max="2" width="5.17188" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.1719" style="1" customWidth="1"/>
     <col min="4" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
